--- a/task.xlsx
+++ b/task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -50,60 +50,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucReward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failReward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucNext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failNext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成后的后续任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败的后续任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task03</t>
+  </si>
+  <si>
+    <t>Task04</t>
+  </si>
+  <si>
+    <t>Task05</t>
+  </si>
+  <si>
+    <t>Task06</t>
+  </si>
+  <si>
+    <t>Task07</t>
+  </si>
+  <si>
+    <t>Task08</t>
+  </si>
+  <si>
+    <t>Task09</t>
+  </si>
+  <si>
+    <t>Task02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201-50;1301-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1132-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task10</t>
+  </si>
+  <si>
+    <t>Task11</t>
+  </si>
+  <si>
+    <t>Task12</t>
+  </si>
+  <si>
+    <t>Task13</t>
+  </si>
+  <si>
+    <t>Task14</t>
+  </si>
+  <si>
+    <t>Task15</t>
+  </si>
+  <si>
+    <t>Task16</t>
+  </si>
+  <si>
+    <t>Task17</t>
+  </si>
+  <si>
+    <t>Task18</t>
+  </si>
+  <si>
+    <t>Task19</t>
+  </si>
+  <si>
+    <t>Task20</t>
   </si>
 </sst>
 </file>
@@ -459,22 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F18" sqref="F18:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,28 +527,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -517,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -525,20 +555,8 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -549,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -557,20 +575,8 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -581,161 +587,307 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>100001</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6">
         <v>100002</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>100002</v>
       </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7">
         <v>100003</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:6">
       <c r="A8">
+        <v>100002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="F8">
         <v>100003</v>
       </c>
-      <c r="F8">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>100003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>100004</v>
       </c>
-      <c r="J8">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>100004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>100005</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>100004</v>
-      </c>
-      <c r="F9">
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>100005</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>100005</v>
-      </c>
-      <c r="F10">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>100006</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>100006</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>100007</v>
       </c>
-      <c r="F12">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>100008</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>100008</v>
       </c>
-      <c r="F13">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>100009</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>100009</v>
       </c>
-      <c r="F14">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>100010</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>100010</v>
       </c>
-      <c r="F15">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>100011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>100011</v>
-      </c>
-      <c r="F16">
-        <v>100012</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
+        <v>100011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>100012</v>
-      </c>
-      <c r="F17">
-        <v>100013</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
+        <v>100012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>100013</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
+        <v>100013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>100014</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
+        <v>100014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>100015</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
+        <v>100015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>100016</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
+        <v>100016</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>100017</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
+        <v>100017</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>100018</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
+        <v>100018</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>100019</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <v>100019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>100020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>100020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +896,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"CS,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2">
       <formula1>"String,int,bool"</formula1>
     </dataValidation>
   </dataValidations>

--- a/task.xlsx
+++ b/task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -34,10 +34,6 @@
     <t>配置ID</t>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成后的后续任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1201-50;1301-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1132-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +134,18 @@
   </si>
   <si>
     <t>Task20</t>
+  </si>
+  <si>
+    <t>1-1201-50;1-1301-20;2-1311-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -501,22 +501,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,19 +523,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -544,27 +540,24 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -572,322 +565,259 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>100001</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>100002</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>100002</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="E7">
         <v>100003</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>100002</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
         <v>100003</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>100003</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="E9">
         <v>100004</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>100004</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="E10">
         <v>100005</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>100005</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="E11">
         <v>100006</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>100006</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>100007</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="E13">
         <v>100008</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>100008</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+        <v>21</v>
+      </c>
+      <c r="E14">
         <v>100009</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>100009</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="E15">
         <v>100010</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>100010</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="E16">
         <v>100011</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>100011</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="E17">
         <v>100012</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>100012</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="E18">
         <v>100013</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>100013</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="E19">
         <v>100014</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>100014</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="E20">
         <v>100015</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>100015</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="E21">
         <v>100016</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>100016</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+        <v>31</v>
+      </c>
+      <c r="E22">
         <v>100017</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>100017</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="E23">
         <v>100018</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>100018</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+        <v>33</v>
+      </c>
+      <c r="E24">
         <v>100019</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>100019</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="E25">
         <v>100020</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>100020</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +826,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>"CS,C,S"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2">
       <formula1>"String,int,bool"</formula1>
     </dataValidation>
   </dataValidations>
